--- a/biology/Médecine/Mats_Brännström/Mats_Brännström.xlsx
+++ b/biology/Médecine/Mats_Brännström/Mats_Brännström.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mats_Br%C3%A4nnstr%C3%B6m</t>
+          <t>Mats_Brännström</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mats Brännström (né le 22 janvier 1958) est un consultant et professeur suédois d'obstétrique et de gynécologie. 
-Le professeur Brännström est professeur d'obstétrique et de gynécologie à l'université de Göteborg depuis 2003[1]. 
-Brännström a dirigé le projet de recherche[2] qui, en 2014, a abouti à la première naissance après une greffe utérine[3]. Les résultats de la recherche ont été publiés dans la revue médicale britannique The Lancet[4]. 
-Il a également contribué à la réalisation de la première greffe utérine française en collaboration avec les équipes du professeur Jean-Marc Ayoubi[5].
+Le professeur Brännström est professeur d'obstétrique et de gynécologie à l'université de Göteborg depuis 2003. 
+Brännström a dirigé le projet de recherche qui, en 2014, a abouti à la première naissance après une greffe utérine. Les résultats de la recherche ont été publiés dans la revue médicale britannique The Lancet. 
+Il a également contribué à la réalisation de la première greffe utérine française en collaboration avec les équipes du professeur Jean-Marc Ayoubi.
 </t>
         </is>
       </c>
